--- a/TrabalhoFinal/Tarefas.xlsx
+++ b/TrabalhoFinal/Tarefas.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederico\Dropbox\ISEL\ASI\Projecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederico\work\ISEL\github\com.isel.si1314.asi\TrabalhoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12300" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
     <sheet name="Glossário" sheetId="4" r:id="rId2"/>
+    <sheet name="Notas do Desenvolvimento" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t xml:space="preserve">Termo </t>
   </si>
@@ -308,6 +309,134 @@
   </si>
   <si>
     <t>Multi-loja</t>
+  </si>
+  <si>
+    <t>» Assumindo que vamos usar queues de mensagens entre os locais de vendas e a sede, não é preciso ter nos locais mais que (parte) da tabela de produtos. Mas achamos que deverá manter a designação e o preço, para além dos campos referidos no enunciado: Codigo e quantidade em stock</t>
+  </si>
+  <si>
+    <t>» Falta: concluir o script para ligar às diferentes bases de dados</t>
+  </si>
+  <si>
+    <t>» Na sede deverá ser necessario ter o preço do produto (mas também pode vir na venda), para as previsiveis actividades de gestao.</t>
+  </si>
+  <si>
+    <t>Modulos a Implementar</t>
+  </si>
+  <si>
+    <t>» São registados os dados do cliente: Nome e Morada (NIF?, Ntelefone?)</t>
+  </si>
+  <si>
+    <t>» Os items serão introduzidos por consulta a uma lista de produtos</t>
+  </si>
+  <si>
+    <t>» Introduzida a quantidade é calculado o preço total do item e da Venda</t>
+  </si>
+  <si>
+    <t>» No fecho inica uma transação para enviar a Venda para a "FilaVendas"  e decrementa o stock de cada produto vendido. Em caso de erro volta ao ecran de registo da venda comunicando o resultado.</t>
+  </si>
+  <si>
+    <t>VENDA - LOJA</t>
+  </si>
+  <si>
+    <t>VENDA - SEDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» para cada VENDA recebida consulta o stock e se não tiver lança uma encomenda pela </t>
+  </si>
+  <si>
+    <t>? A ponderar: Se o stock não for suficiente lança encomenda da diferença? E se outros processos tiverem a mesma necessidade? Criar uma alternativa "quantidades Cativas?"</t>
+  </si>
+  <si>
+    <t>» Marca o item e a Venda como estando à espera da chegada de uma Encomenda"</t>
+  </si>
+  <si>
+    <t>ENCOMENDAS</t>
+  </si>
+  <si>
+    <t>» processo na sede</t>
+  </si>
+  <si>
+    <t>» As encomendas são colocadas na sequencia de uma VENDA, quando desce abaixo da quantidade minima</t>
+  </si>
+  <si>
+    <t>» Recpeção da Encomenda, actualiza stocks na SEDE e na LOJA</t>
+  </si>
+  <si>
+    <t>» como notificar a "Expedição " que pode expedir mais uma venda ?</t>
+  </si>
+  <si>
+    <t>EXPEDIÇÂO</t>
+  </si>
+  <si>
+    <t>» para todas as VENDAS em condiçoes de expedição (com qtd suficientes em stock) dentro de uma transação cria registo em Expedição e fecha a VENDA</t>
+  </si>
+  <si>
+    <t>gstFORNECEDORES</t>
+  </si>
+  <si>
+    <t>» sede</t>
+  </si>
+  <si>
+    <t>» cria e altera fornecedores</t>
+  </si>
+  <si>
+    <t>gstPRODUTOS</t>
+  </si>
+  <si>
+    <t>» Sede e Loja</t>
+  </si>
+  <si>
+    <t>» em transação sincrona, cria um produto na sede e propaga para a Loja respectiva.</t>
+  </si>
+  <si>
+    <t>» mais ou menos Comum com a alteraçao de Stocks</t>
+  </si>
+  <si>
+    <t>LISTAGEM</t>
+  </si>
+  <si>
+    <t>» apenas na SEDE</t>
+  </si>
+  <si>
+    <t>» Fornecedores, Produtos, Vendas, Expedições</t>
+  </si>
+  <si>
+    <t>» Uma vez que cada Loja controla os seus Stocks de venda, poderá não vender quando a quantidade em Stock for igual a zero, logo na sede há sempre produtos e as encomendas são para repor minimos. Ver como colocar isto a simplificar o código.</t>
+  </si>
+  <si>
+    <t>FilaVenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» esta fila tem uma mensagem por cada encomenda </t>
+  </si>
+  <si>
+    <t>» a estrutura deverá ter a informação necessária para colocar na tabela VENDA e VENDAPRODUTO</t>
+  </si>
+  <si>
+    <t>» Dependendo da forma como recebe a mensagem poderá ou não ser sessionless e é melhor se for (ou seja toda a info numa única mensagem);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem de haver uma fila em cada servidor de Loja LHD e LSC e invocam um serviço no Servidor da SEDE (na retirada da mensgem da Queue).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -379,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -401,6 +530,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D42" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1201,4 +1333,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TrabalhoFinal/Tarefas.xlsx
+++ b/TrabalhoFinal/Tarefas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12300" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t xml:space="preserve">Termo </t>
   </si>
@@ -125,15 +125,6 @@
     <t>SrvSede</t>
   </si>
   <si>
-    <t>tbFornecedores</t>
-  </si>
-  <si>
-    <t>tbProdutos</t>
-  </si>
-  <si>
-    <t>Venda</t>
-  </si>
-  <si>
     <t>Encomenda</t>
   </si>
   <si>
@@ -143,18 +134,6 @@
     <t>Expedição</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Servidor para as lojas LSC</t>
-  </si>
-  <si>
-    <t>Servidor para as lojas LHD</t>
-  </si>
-  <si>
-    <t>Servidor para a Sede</t>
-  </si>
-  <si>
     <t>iLSC</t>
   </si>
   <si>
@@ -341,36 +320,12 @@
     <t>VENDA - SEDE</t>
   </si>
   <si>
-    <t xml:space="preserve">» para cada VENDA recebida consulta o stock e se não tiver lança uma encomenda pela </t>
-  </si>
-  <si>
-    <t>? A ponderar: Se o stock não for suficiente lança encomenda da diferença? E se outros processos tiverem a mesma necessidade? Criar uma alternativa "quantidades Cativas?"</t>
-  </si>
-  <si>
-    <t>» Marca o item e a Venda como estando à espera da chegada de uma Encomenda"</t>
-  </si>
-  <si>
-    <t>ENCOMENDAS</t>
-  </si>
-  <si>
     <t>» processo na sede</t>
   </si>
   <si>
     <t>» As encomendas são colocadas na sequencia de uma VENDA, quando desce abaixo da quantidade minima</t>
   </si>
   <si>
-    <t>» Recpeção da Encomenda, actualiza stocks na SEDE e na LOJA</t>
-  </si>
-  <si>
-    <t>» como notificar a "Expedição " que pode expedir mais uma venda ?</t>
-  </si>
-  <si>
-    <t>EXPEDIÇÂO</t>
-  </si>
-  <si>
-    <t>» para todas as VENDAS em condiçoes de expedição (com qtd suficientes em stock) dentro de uma transação cria registo em Expedição e fecha a VENDA</t>
-  </si>
-  <si>
     <t>gstFORNECEDORES</t>
   </si>
   <si>
@@ -392,22 +347,10 @@
     <t>» mais ou menos Comum com a alteraçao de Stocks</t>
   </si>
   <si>
-    <t>LISTAGEM</t>
-  </si>
-  <si>
     <t>» apenas na SEDE</t>
   </si>
   <si>
-    <t>» Fornecedores, Produtos, Vendas, Expedições</t>
-  </si>
-  <si>
-    <t>» Uma vez que cada Loja controla os seus Stocks de venda, poderá não vender quando a quantidade em Stock for igual a zero, logo na sede há sempre produtos e as encomendas são para repor minimos. Ver como colocar isto a simplificar o código.</t>
-  </si>
-  <si>
     <t>FilaVenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">» esta fila tem uma mensagem por cada encomenda </t>
   </si>
   <si>
     <t>» a estrutura deverá ter a informação necessária para colocar na tabela VENDA e VENDAPRODUTO</t>
@@ -438,12 +381,132 @@
       <t>tem de haver uma fila em cada servidor de Loja LHD e LSC e invocam um serviço no Servidor da SEDE (na retirada da mensgem da Queue).</t>
     </r>
   </si>
+  <si>
+    <t>» São duas filas a flLSC flLHD</t>
+  </si>
+  <si>
+    <t>» Recebem mensagens relativas a vendas que depois são propagadas para a SEDE</t>
+  </si>
+  <si>
+    <t>fornecedor</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>venda</t>
+  </si>
+  <si>
+    <t>vendaProdutos</t>
+  </si>
+  <si>
+    <t>flLSC</t>
+  </si>
+  <si>
+    <t>flLHD</t>
+  </si>
+  <si>
+    <t>Fila de mensagens para o conjunto de lojas LSC</t>
+  </si>
+  <si>
+    <t>Fila de mensagens para o conjunto de lojas LHD</t>
+  </si>
+  <si>
+    <t>Servidor aplicacional para as lojas LSC</t>
+  </si>
+  <si>
+    <t>Servidor aplicacional para as lojas LHD</t>
+  </si>
+  <si>
+    <t>Servidor aplicacional  para a Sede</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>lnkLSC</t>
+  </si>
+  <si>
+    <t>lnkLHD</t>
+  </si>
+  <si>
+    <t>linkedserver para LSC</t>
+  </si>
+  <si>
+    <t>linkedserver para LHD</t>
+  </si>
+  <si>
+    <t>Atualizar stock. Procedimento que de forma sincrona atualiza os stocks das lojas "somando" os produtos recebidos dos fornecedores (os decrementos são feitos na altura da VENDA)</t>
+  </si>
+  <si>
+    <t>Trigger para inserção na tabela de Produtos da Sede que replica a inserção para a Loja respetiva</t>
+  </si>
+  <si>
+    <t>prcAumentaStock</t>
+  </si>
+  <si>
+    <t>trgNovoProduto</t>
+  </si>
+  <si>
+    <t>LISTAGEM ProdutosEmStock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» Faz uma listagem dos produtos em Stock </t>
+  </si>
+  <si>
+    <t>»» poderão surgir inconsistencias na listagem pq às quantidades são aleradas enquanto a listagem é produzida. Em Alternativa ler todos os dados para memória para garantir coerência (depende da dmensão de dados)</t>
+  </si>
+  <si>
+    <t>EXPEDIÇÃO</t>
+  </si>
+  <si>
+    <t>Pessuposto (da leitura do enunciado): Um produto só pode ser vendido por um tipo de loja. O servidor desse tipo de loja tem indicação directa das saidas de stock e pode controlar as vendas de forma a nao vender quantidades que nao tem. A base de dados das lojas são também notificadas dos aumentos de stock. Isto quer dizer que todas as vendas chegadas à central são possíveis de satisfazer. As encomendas são só realizadas para reposição do stock minimo! (deveria ser com um delta )</t>
+  </si>
+  <si>
+    <t>» para cada item (produto) da Venda, decrementa o stock na quantidade indicada. Marca o item como pocessado. Se o stock final for menor que o stock minimo chama processo de encomenda.</t>
+  </si>
+  <si>
+    <t>Ver modulo de Gestão de Encomendas para o processamento da encomenda.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">encProduto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (encomendar produto)</t>
+    </r>
+  </si>
+  <si>
+    <t>» assumindo que não há vendas para alem do stock disponível, as Encomendas resultam de diferenças face ao stock minimo. Se não houver um processo de histerese (reposiçao de stock acima do minimo, exemplo se faltarem 5 produtos, pela venda corrente face ao stock minimo ,encomendamos 8) então, quando abaixo do stock minimo cada VENDA repõe o que tirou  e o processo pode ser completamente isolado sem precisar de condicionar o acesso ao registo (locks de maior duração).</t>
+  </si>
+  <si>
+    <t>gstENCOMENDAS</t>
+  </si>
+  <si>
+    <t>» todas as vendas estão em condições de serem satisfeitas. Contudo o codigo pode ser feito a prever casos de satisfaçao parcial e espera pelos restantes (just in case e porque não tem outras implicações transactionais)</t>
+  </si>
+  <si>
+    <t>em curso</t>
+  </si>
+  <si>
+    <t>draft v0</t>
+  </si>
+  <si>
+    <t>ver Notas do Desenvolvimento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +525,14 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -532,6 +603,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +927,7 @@
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,16 +954,25 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -930,225 +1017,240 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+      <c r="E32" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="E39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
@@ -1166,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D42" sqref="D1:G1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1219,7 +1321,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,98 +1337,130 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B51"/>
+  <dimension ref="A3:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView view="pageLayout" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,189 +1483,226 @@
     <col min="2" max="2" width="80.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>123</v>
+      <c r="B42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
